--- a/Documentation/Feedback .xlsx
+++ b/Documentation/Feedback .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datht/Documents/GitHub/eProject-Sem01_T1.2201.E0_DURABLE-FURNITURES_Group01_Final Submit/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C1F13-5854-4FE5-BAA8-5268F8094B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A7A5D1-E9B5-674D-9944-8F32312303CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13F48C07-1CCA-4D7F-A74C-3E491A79E2F7}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{13F48C07-1CCA-4D7F-A74C-3E491A79E2F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -131,7 +123,7 @@
     <t>DURABLE FURNITURES</t>
   </si>
   <si>
-    <t>ACCP 6715</t>
+    <t>T1.2201.E0</t>
   </si>
 </sst>
 </file>
@@ -141,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +163,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,6 +594,69 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,69 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,356 +1035,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5910A-6ACD-4AB5-9623-C7F3509FA476}">
-  <dimension ref="B1:D35"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.109375" style="2" customWidth="1"/>
-    <col min="5" max="256" width="9.109375" style="1"/>
-    <col min="257" max="257" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" style="2" customWidth="1"/>
+    <col min="5" max="256" width="9.1640625" style="1"/>
+    <col min="257" max="257" width="2.5" style="1" customWidth="1"/>
     <col min="258" max="258" width="23.33203125" style="1" customWidth="1"/>
     <col min="259" max="259" width="45" style="1" customWidth="1"/>
-    <col min="260" max="260" width="65.109375" style="1" customWidth="1"/>
-    <col min="261" max="512" width="9.109375" style="1"/>
-    <col min="513" max="513" width="2.44140625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="65.1640625" style="1" customWidth="1"/>
+    <col min="261" max="512" width="9.1640625" style="1"/>
+    <col min="513" max="513" width="2.5" style="1" customWidth="1"/>
     <col min="514" max="514" width="23.33203125" style="1" customWidth="1"/>
     <col min="515" max="515" width="45" style="1" customWidth="1"/>
-    <col min="516" max="516" width="65.109375" style="1" customWidth="1"/>
-    <col min="517" max="768" width="9.109375" style="1"/>
-    <col min="769" max="769" width="2.44140625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="65.1640625" style="1" customWidth="1"/>
+    <col min="517" max="768" width="9.1640625" style="1"/>
+    <col min="769" max="769" width="2.5" style="1" customWidth="1"/>
     <col min="770" max="770" width="23.33203125" style="1" customWidth="1"/>
     <col min="771" max="771" width="45" style="1" customWidth="1"/>
-    <col min="772" max="772" width="65.109375" style="1" customWidth="1"/>
-    <col min="773" max="1024" width="9.109375" style="1"/>
-    <col min="1025" max="1025" width="2.44140625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="65.1640625" style="1" customWidth="1"/>
+    <col min="773" max="1024" width="9.1640625" style="1"/>
+    <col min="1025" max="1025" width="2.5" style="1" customWidth="1"/>
     <col min="1026" max="1026" width="23.33203125" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="45" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="65.109375" style="1" customWidth="1"/>
-    <col min="1029" max="1280" width="9.109375" style="1"/>
-    <col min="1281" max="1281" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="65.1640625" style="1" customWidth="1"/>
+    <col min="1029" max="1280" width="9.1640625" style="1"/>
+    <col min="1281" max="1281" width="2.5" style="1" customWidth="1"/>
     <col min="1282" max="1282" width="23.33203125" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="45" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="65.109375" style="1" customWidth="1"/>
-    <col min="1285" max="1536" width="9.109375" style="1"/>
-    <col min="1537" max="1537" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="65.1640625" style="1" customWidth="1"/>
+    <col min="1285" max="1536" width="9.1640625" style="1"/>
+    <col min="1537" max="1537" width="2.5" style="1" customWidth="1"/>
     <col min="1538" max="1538" width="23.33203125" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="45" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="65.109375" style="1" customWidth="1"/>
-    <col min="1541" max="1792" width="9.109375" style="1"/>
-    <col min="1793" max="1793" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="65.1640625" style="1" customWidth="1"/>
+    <col min="1541" max="1792" width="9.1640625" style="1"/>
+    <col min="1793" max="1793" width="2.5" style="1" customWidth="1"/>
     <col min="1794" max="1794" width="23.33203125" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="45" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="65.109375" style="1" customWidth="1"/>
-    <col min="1797" max="2048" width="9.109375" style="1"/>
-    <col min="2049" max="2049" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="65.1640625" style="1" customWidth="1"/>
+    <col min="1797" max="2048" width="9.1640625" style="1"/>
+    <col min="2049" max="2049" width="2.5" style="1" customWidth="1"/>
     <col min="2050" max="2050" width="23.33203125" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="45" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="65.109375" style="1" customWidth="1"/>
-    <col min="2053" max="2304" width="9.109375" style="1"/>
-    <col min="2305" max="2305" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="65.1640625" style="1" customWidth="1"/>
+    <col min="2053" max="2304" width="9.1640625" style="1"/>
+    <col min="2305" max="2305" width="2.5" style="1" customWidth="1"/>
     <col min="2306" max="2306" width="23.33203125" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="45" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="65.109375" style="1" customWidth="1"/>
-    <col min="2309" max="2560" width="9.109375" style="1"/>
-    <col min="2561" max="2561" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="65.1640625" style="1" customWidth="1"/>
+    <col min="2309" max="2560" width="9.1640625" style="1"/>
+    <col min="2561" max="2561" width="2.5" style="1" customWidth="1"/>
     <col min="2562" max="2562" width="23.33203125" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="45" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="65.109375" style="1" customWidth="1"/>
-    <col min="2565" max="2816" width="9.109375" style="1"/>
-    <col min="2817" max="2817" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="65.1640625" style="1" customWidth="1"/>
+    <col min="2565" max="2816" width="9.1640625" style="1"/>
+    <col min="2817" max="2817" width="2.5" style="1" customWidth="1"/>
     <col min="2818" max="2818" width="23.33203125" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="45" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="65.109375" style="1" customWidth="1"/>
-    <col min="2821" max="3072" width="9.109375" style="1"/>
-    <col min="3073" max="3073" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="65.1640625" style="1" customWidth="1"/>
+    <col min="2821" max="3072" width="9.1640625" style="1"/>
+    <col min="3073" max="3073" width="2.5" style="1" customWidth="1"/>
     <col min="3074" max="3074" width="23.33203125" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="45" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="65.109375" style="1" customWidth="1"/>
-    <col min="3077" max="3328" width="9.109375" style="1"/>
-    <col min="3329" max="3329" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="65.1640625" style="1" customWidth="1"/>
+    <col min="3077" max="3328" width="9.1640625" style="1"/>
+    <col min="3329" max="3329" width="2.5" style="1" customWidth="1"/>
     <col min="3330" max="3330" width="23.33203125" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="45" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="65.109375" style="1" customWidth="1"/>
-    <col min="3333" max="3584" width="9.109375" style="1"/>
-    <col min="3585" max="3585" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="65.1640625" style="1" customWidth="1"/>
+    <col min="3333" max="3584" width="9.1640625" style="1"/>
+    <col min="3585" max="3585" width="2.5" style="1" customWidth="1"/>
     <col min="3586" max="3586" width="23.33203125" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="45" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="65.109375" style="1" customWidth="1"/>
-    <col min="3589" max="3840" width="9.109375" style="1"/>
-    <col min="3841" max="3841" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="65.1640625" style="1" customWidth="1"/>
+    <col min="3589" max="3840" width="9.1640625" style="1"/>
+    <col min="3841" max="3841" width="2.5" style="1" customWidth="1"/>
     <col min="3842" max="3842" width="23.33203125" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="45" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="65.109375" style="1" customWidth="1"/>
-    <col min="3845" max="4096" width="9.109375" style="1"/>
-    <col min="4097" max="4097" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="65.1640625" style="1" customWidth="1"/>
+    <col min="3845" max="4096" width="9.1640625" style="1"/>
+    <col min="4097" max="4097" width="2.5" style="1" customWidth="1"/>
     <col min="4098" max="4098" width="23.33203125" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="45" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="65.109375" style="1" customWidth="1"/>
-    <col min="4101" max="4352" width="9.109375" style="1"/>
-    <col min="4353" max="4353" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="65.1640625" style="1" customWidth="1"/>
+    <col min="4101" max="4352" width="9.1640625" style="1"/>
+    <col min="4353" max="4353" width="2.5" style="1" customWidth="1"/>
     <col min="4354" max="4354" width="23.33203125" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="45" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="65.109375" style="1" customWidth="1"/>
-    <col min="4357" max="4608" width="9.109375" style="1"/>
-    <col min="4609" max="4609" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="65.1640625" style="1" customWidth="1"/>
+    <col min="4357" max="4608" width="9.1640625" style="1"/>
+    <col min="4609" max="4609" width="2.5" style="1" customWidth="1"/>
     <col min="4610" max="4610" width="23.33203125" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="45" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="65.109375" style="1" customWidth="1"/>
-    <col min="4613" max="4864" width="9.109375" style="1"/>
-    <col min="4865" max="4865" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="65.1640625" style="1" customWidth="1"/>
+    <col min="4613" max="4864" width="9.1640625" style="1"/>
+    <col min="4865" max="4865" width="2.5" style="1" customWidth="1"/>
     <col min="4866" max="4866" width="23.33203125" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="45" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="65.109375" style="1" customWidth="1"/>
-    <col min="4869" max="5120" width="9.109375" style="1"/>
-    <col min="5121" max="5121" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="65.1640625" style="1" customWidth="1"/>
+    <col min="4869" max="5120" width="9.1640625" style="1"/>
+    <col min="5121" max="5121" width="2.5" style="1" customWidth="1"/>
     <col min="5122" max="5122" width="23.33203125" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="45" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="65.109375" style="1" customWidth="1"/>
-    <col min="5125" max="5376" width="9.109375" style="1"/>
-    <col min="5377" max="5377" width="2.44140625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="65.1640625" style="1" customWidth="1"/>
+    <col min="5125" max="5376" width="9.1640625" style="1"/>
+    <col min="5377" max="5377" width="2.5" style="1" customWidth="1"/>
     <col min="5378" max="5378" width="23.33203125" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="45" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="65.109375" style="1" customWidth="1"/>
-    <col min="5381" max="5632" width="9.109375" style="1"/>
-    <col min="5633" max="5633" width="2.44140625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="65.1640625" style="1" customWidth="1"/>
+    <col min="5381" max="5632" width="9.1640625" style="1"/>
+    <col min="5633" max="5633" width="2.5" style="1" customWidth="1"/>
     <col min="5634" max="5634" width="23.33203125" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="45" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="65.109375" style="1" customWidth="1"/>
-    <col min="5637" max="5888" width="9.109375" style="1"/>
-    <col min="5889" max="5889" width="2.44140625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="65.1640625" style="1" customWidth="1"/>
+    <col min="5637" max="5888" width="9.1640625" style="1"/>
+    <col min="5889" max="5889" width="2.5" style="1" customWidth="1"/>
     <col min="5890" max="5890" width="23.33203125" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="45" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="65.109375" style="1" customWidth="1"/>
-    <col min="5893" max="6144" width="9.109375" style="1"/>
-    <col min="6145" max="6145" width="2.44140625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="65.1640625" style="1" customWidth="1"/>
+    <col min="5893" max="6144" width="9.1640625" style="1"/>
+    <col min="6145" max="6145" width="2.5" style="1" customWidth="1"/>
     <col min="6146" max="6146" width="23.33203125" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="45" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="65.109375" style="1" customWidth="1"/>
-    <col min="6149" max="6400" width="9.109375" style="1"/>
-    <col min="6401" max="6401" width="2.44140625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="65.1640625" style="1" customWidth="1"/>
+    <col min="6149" max="6400" width="9.1640625" style="1"/>
+    <col min="6401" max="6401" width="2.5" style="1" customWidth="1"/>
     <col min="6402" max="6402" width="23.33203125" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="45" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="65.109375" style="1" customWidth="1"/>
-    <col min="6405" max="6656" width="9.109375" style="1"/>
-    <col min="6657" max="6657" width="2.44140625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="65.1640625" style="1" customWidth="1"/>
+    <col min="6405" max="6656" width="9.1640625" style="1"/>
+    <col min="6657" max="6657" width="2.5" style="1" customWidth="1"/>
     <col min="6658" max="6658" width="23.33203125" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="45" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="65.109375" style="1" customWidth="1"/>
-    <col min="6661" max="6912" width="9.109375" style="1"/>
-    <col min="6913" max="6913" width="2.44140625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="65.1640625" style="1" customWidth="1"/>
+    <col min="6661" max="6912" width="9.1640625" style="1"/>
+    <col min="6913" max="6913" width="2.5" style="1" customWidth="1"/>
     <col min="6914" max="6914" width="23.33203125" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="45" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="65.109375" style="1" customWidth="1"/>
-    <col min="6917" max="7168" width="9.109375" style="1"/>
-    <col min="7169" max="7169" width="2.44140625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="65.1640625" style="1" customWidth="1"/>
+    <col min="6917" max="7168" width="9.1640625" style="1"/>
+    <col min="7169" max="7169" width="2.5" style="1" customWidth="1"/>
     <col min="7170" max="7170" width="23.33203125" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="45" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="65.109375" style="1" customWidth="1"/>
-    <col min="7173" max="7424" width="9.109375" style="1"/>
-    <col min="7425" max="7425" width="2.44140625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7173" max="7424" width="9.1640625" style="1"/>
+    <col min="7425" max="7425" width="2.5" style="1" customWidth="1"/>
     <col min="7426" max="7426" width="23.33203125" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="45" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="65.109375" style="1" customWidth="1"/>
-    <col min="7429" max="7680" width="9.109375" style="1"/>
-    <col min="7681" max="7681" width="2.44140625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7429" max="7680" width="9.1640625" style="1"/>
+    <col min="7681" max="7681" width="2.5" style="1" customWidth="1"/>
     <col min="7682" max="7682" width="23.33203125" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="45" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="65.109375" style="1" customWidth="1"/>
-    <col min="7685" max="7936" width="9.109375" style="1"/>
-    <col min="7937" max="7937" width="2.44140625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7685" max="7936" width="9.1640625" style="1"/>
+    <col min="7937" max="7937" width="2.5" style="1" customWidth="1"/>
     <col min="7938" max="7938" width="23.33203125" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="45" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="65.109375" style="1" customWidth="1"/>
-    <col min="7941" max="8192" width="9.109375" style="1"/>
-    <col min="8193" max="8193" width="2.44140625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7941" max="8192" width="9.1640625" style="1"/>
+    <col min="8193" max="8193" width="2.5" style="1" customWidth="1"/>
     <col min="8194" max="8194" width="23.33203125" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="45" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="65.109375" style="1" customWidth="1"/>
-    <col min="8197" max="8448" width="9.109375" style="1"/>
-    <col min="8449" max="8449" width="2.44140625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="65.1640625" style="1" customWidth="1"/>
+    <col min="8197" max="8448" width="9.1640625" style="1"/>
+    <col min="8449" max="8449" width="2.5" style="1" customWidth="1"/>
     <col min="8450" max="8450" width="23.33203125" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="45" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="65.109375" style="1" customWidth="1"/>
-    <col min="8453" max="8704" width="9.109375" style="1"/>
-    <col min="8705" max="8705" width="2.44140625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="65.1640625" style="1" customWidth="1"/>
+    <col min="8453" max="8704" width="9.1640625" style="1"/>
+    <col min="8705" max="8705" width="2.5" style="1" customWidth="1"/>
     <col min="8706" max="8706" width="23.33203125" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="45" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="65.109375" style="1" customWidth="1"/>
-    <col min="8709" max="8960" width="9.109375" style="1"/>
-    <col min="8961" max="8961" width="2.44140625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="65.1640625" style="1" customWidth="1"/>
+    <col min="8709" max="8960" width="9.1640625" style="1"/>
+    <col min="8961" max="8961" width="2.5" style="1" customWidth="1"/>
     <col min="8962" max="8962" width="23.33203125" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="45" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="65.109375" style="1" customWidth="1"/>
-    <col min="8965" max="9216" width="9.109375" style="1"/>
-    <col min="9217" max="9217" width="2.44140625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="65.1640625" style="1" customWidth="1"/>
+    <col min="8965" max="9216" width="9.1640625" style="1"/>
+    <col min="9217" max="9217" width="2.5" style="1" customWidth="1"/>
     <col min="9218" max="9218" width="23.33203125" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="45" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="65.109375" style="1" customWidth="1"/>
-    <col min="9221" max="9472" width="9.109375" style="1"/>
-    <col min="9473" max="9473" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="65.1640625" style="1" customWidth="1"/>
+    <col min="9221" max="9472" width="9.1640625" style="1"/>
+    <col min="9473" max="9473" width="2.5" style="1" customWidth="1"/>
     <col min="9474" max="9474" width="23.33203125" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="45" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="65.109375" style="1" customWidth="1"/>
-    <col min="9477" max="9728" width="9.109375" style="1"/>
-    <col min="9729" max="9729" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="65.1640625" style="1" customWidth="1"/>
+    <col min="9477" max="9728" width="9.1640625" style="1"/>
+    <col min="9729" max="9729" width="2.5" style="1" customWidth="1"/>
     <col min="9730" max="9730" width="23.33203125" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="45" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="65.109375" style="1" customWidth="1"/>
-    <col min="9733" max="9984" width="9.109375" style="1"/>
-    <col min="9985" max="9985" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="65.1640625" style="1" customWidth="1"/>
+    <col min="9733" max="9984" width="9.1640625" style="1"/>
+    <col min="9985" max="9985" width="2.5" style="1" customWidth="1"/>
     <col min="9986" max="9986" width="23.33203125" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="45" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="65.109375" style="1" customWidth="1"/>
-    <col min="9989" max="10240" width="9.109375" style="1"/>
-    <col min="10241" max="10241" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="65.1640625" style="1" customWidth="1"/>
+    <col min="9989" max="10240" width="9.1640625" style="1"/>
+    <col min="10241" max="10241" width="2.5" style="1" customWidth="1"/>
     <col min="10242" max="10242" width="23.33203125" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="45" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="65.109375" style="1" customWidth="1"/>
-    <col min="10245" max="10496" width="9.109375" style="1"/>
-    <col min="10497" max="10497" width="2.44140625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="65.1640625" style="1" customWidth="1"/>
+    <col min="10245" max="10496" width="9.1640625" style="1"/>
+    <col min="10497" max="10497" width="2.5" style="1" customWidth="1"/>
     <col min="10498" max="10498" width="23.33203125" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="45" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="65.109375" style="1" customWidth="1"/>
-    <col min="10501" max="10752" width="9.109375" style="1"/>
-    <col min="10753" max="10753" width="2.44140625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="65.1640625" style="1" customWidth="1"/>
+    <col min="10501" max="10752" width="9.1640625" style="1"/>
+    <col min="10753" max="10753" width="2.5" style="1" customWidth="1"/>
     <col min="10754" max="10754" width="23.33203125" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="45" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="65.109375" style="1" customWidth="1"/>
-    <col min="10757" max="11008" width="9.109375" style="1"/>
-    <col min="11009" max="11009" width="2.44140625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="65.1640625" style="1" customWidth="1"/>
+    <col min="10757" max="11008" width="9.1640625" style="1"/>
+    <col min="11009" max="11009" width="2.5" style="1" customWidth="1"/>
     <col min="11010" max="11010" width="23.33203125" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="45" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="65.109375" style="1" customWidth="1"/>
-    <col min="11013" max="11264" width="9.109375" style="1"/>
-    <col min="11265" max="11265" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="65.1640625" style="1" customWidth="1"/>
+    <col min="11013" max="11264" width="9.1640625" style="1"/>
+    <col min="11265" max="11265" width="2.5" style="1" customWidth="1"/>
     <col min="11266" max="11266" width="23.33203125" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="45" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="65.109375" style="1" customWidth="1"/>
-    <col min="11269" max="11520" width="9.109375" style="1"/>
-    <col min="11521" max="11521" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="65.1640625" style="1" customWidth="1"/>
+    <col min="11269" max="11520" width="9.1640625" style="1"/>
+    <col min="11521" max="11521" width="2.5" style="1" customWidth="1"/>
     <col min="11522" max="11522" width="23.33203125" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="45" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="65.109375" style="1" customWidth="1"/>
-    <col min="11525" max="11776" width="9.109375" style="1"/>
-    <col min="11777" max="11777" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="65.1640625" style="1" customWidth="1"/>
+    <col min="11525" max="11776" width="9.1640625" style="1"/>
+    <col min="11777" max="11777" width="2.5" style="1" customWidth="1"/>
     <col min="11778" max="11778" width="23.33203125" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="45" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="65.109375" style="1" customWidth="1"/>
-    <col min="11781" max="12032" width="9.109375" style="1"/>
-    <col min="12033" max="12033" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="65.1640625" style="1" customWidth="1"/>
+    <col min="11781" max="12032" width="9.1640625" style="1"/>
+    <col min="12033" max="12033" width="2.5" style="1" customWidth="1"/>
     <col min="12034" max="12034" width="23.33203125" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="45" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="65.109375" style="1" customWidth="1"/>
-    <col min="12037" max="12288" width="9.109375" style="1"/>
-    <col min="12289" max="12289" width="2.44140625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="65.1640625" style="1" customWidth="1"/>
+    <col min="12037" max="12288" width="9.1640625" style="1"/>
+    <col min="12289" max="12289" width="2.5" style="1" customWidth="1"/>
     <col min="12290" max="12290" width="23.33203125" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="45" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="65.109375" style="1" customWidth="1"/>
-    <col min="12293" max="12544" width="9.109375" style="1"/>
-    <col min="12545" max="12545" width="2.44140625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="65.1640625" style="1" customWidth="1"/>
+    <col min="12293" max="12544" width="9.1640625" style="1"/>
+    <col min="12545" max="12545" width="2.5" style="1" customWidth="1"/>
     <col min="12546" max="12546" width="23.33203125" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="45" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="65.109375" style="1" customWidth="1"/>
-    <col min="12549" max="12800" width="9.109375" style="1"/>
-    <col min="12801" max="12801" width="2.44140625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="65.1640625" style="1" customWidth="1"/>
+    <col min="12549" max="12800" width="9.1640625" style="1"/>
+    <col min="12801" max="12801" width="2.5" style="1" customWidth="1"/>
     <col min="12802" max="12802" width="23.33203125" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="45" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="65.109375" style="1" customWidth="1"/>
-    <col min="12805" max="13056" width="9.109375" style="1"/>
-    <col min="13057" max="13057" width="2.44140625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="65.1640625" style="1" customWidth="1"/>
+    <col min="12805" max="13056" width="9.1640625" style="1"/>
+    <col min="13057" max="13057" width="2.5" style="1" customWidth="1"/>
     <col min="13058" max="13058" width="23.33203125" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="45" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="65.109375" style="1" customWidth="1"/>
-    <col min="13061" max="13312" width="9.109375" style="1"/>
-    <col min="13313" max="13313" width="2.44140625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="65.1640625" style="1" customWidth="1"/>
+    <col min="13061" max="13312" width="9.1640625" style="1"/>
+    <col min="13313" max="13313" width="2.5" style="1" customWidth="1"/>
     <col min="13314" max="13314" width="23.33203125" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="45" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="65.109375" style="1" customWidth="1"/>
-    <col min="13317" max="13568" width="9.109375" style="1"/>
-    <col min="13569" max="13569" width="2.44140625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="65.1640625" style="1" customWidth="1"/>
+    <col min="13317" max="13568" width="9.1640625" style="1"/>
+    <col min="13569" max="13569" width="2.5" style="1" customWidth="1"/>
     <col min="13570" max="13570" width="23.33203125" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="45" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="65.109375" style="1" customWidth="1"/>
-    <col min="13573" max="13824" width="9.109375" style="1"/>
-    <col min="13825" max="13825" width="2.44140625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="65.1640625" style="1" customWidth="1"/>
+    <col min="13573" max="13824" width="9.1640625" style="1"/>
+    <col min="13825" max="13825" width="2.5" style="1" customWidth="1"/>
     <col min="13826" max="13826" width="23.33203125" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="45" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="65.109375" style="1" customWidth="1"/>
-    <col min="13829" max="14080" width="9.109375" style="1"/>
-    <col min="14081" max="14081" width="2.44140625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="65.1640625" style="1" customWidth="1"/>
+    <col min="13829" max="14080" width="9.1640625" style="1"/>
+    <col min="14081" max="14081" width="2.5" style="1" customWidth="1"/>
     <col min="14082" max="14082" width="23.33203125" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="45" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="65.109375" style="1" customWidth="1"/>
-    <col min="14085" max="14336" width="9.109375" style="1"/>
-    <col min="14337" max="14337" width="2.44140625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="65.1640625" style="1" customWidth="1"/>
+    <col min="14085" max="14336" width="9.1640625" style="1"/>
+    <col min="14337" max="14337" width="2.5" style="1" customWidth="1"/>
     <col min="14338" max="14338" width="23.33203125" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="45" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="65.109375" style="1" customWidth="1"/>
-    <col min="14341" max="14592" width="9.109375" style="1"/>
-    <col min="14593" max="14593" width="2.44140625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="65.1640625" style="1" customWidth="1"/>
+    <col min="14341" max="14592" width="9.1640625" style="1"/>
+    <col min="14593" max="14593" width="2.5" style="1" customWidth="1"/>
     <col min="14594" max="14594" width="23.33203125" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="45" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="65.109375" style="1" customWidth="1"/>
-    <col min="14597" max="14848" width="9.109375" style="1"/>
-    <col min="14849" max="14849" width="2.44140625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="65.1640625" style="1" customWidth="1"/>
+    <col min="14597" max="14848" width="9.1640625" style="1"/>
+    <col min="14849" max="14849" width="2.5" style="1" customWidth="1"/>
     <col min="14850" max="14850" width="23.33203125" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="45" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="65.109375" style="1" customWidth="1"/>
-    <col min="14853" max="15104" width="9.109375" style="1"/>
-    <col min="15105" max="15105" width="2.44140625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="65.1640625" style="1" customWidth="1"/>
+    <col min="14853" max="15104" width="9.1640625" style="1"/>
+    <col min="15105" max="15105" width="2.5" style="1" customWidth="1"/>
     <col min="15106" max="15106" width="23.33203125" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="45" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="65.109375" style="1" customWidth="1"/>
-    <col min="15109" max="15360" width="9.109375" style="1"/>
-    <col min="15361" max="15361" width="2.44140625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="65.1640625" style="1" customWidth="1"/>
+    <col min="15109" max="15360" width="9.1640625" style="1"/>
+    <col min="15361" max="15361" width="2.5" style="1" customWidth="1"/>
     <col min="15362" max="15362" width="23.33203125" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="45" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="65.109375" style="1" customWidth="1"/>
-    <col min="15365" max="15616" width="9.109375" style="1"/>
-    <col min="15617" max="15617" width="2.44140625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="65.1640625" style="1" customWidth="1"/>
+    <col min="15365" max="15616" width="9.1640625" style="1"/>
+    <col min="15617" max="15617" width="2.5" style="1" customWidth="1"/>
     <col min="15618" max="15618" width="23.33203125" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="45" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="65.109375" style="1" customWidth="1"/>
-    <col min="15621" max="15872" width="9.109375" style="1"/>
-    <col min="15873" max="15873" width="2.44140625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="65.1640625" style="1" customWidth="1"/>
+    <col min="15621" max="15872" width="9.1640625" style="1"/>
+    <col min="15873" max="15873" width="2.5" style="1" customWidth="1"/>
     <col min="15874" max="15874" width="23.33203125" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="45" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="65.109375" style="1" customWidth="1"/>
-    <col min="15877" max="16128" width="9.109375" style="1"/>
-    <col min="16129" max="16129" width="2.44140625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="65.1640625" style="1" customWidth="1"/>
+    <col min="15877" max="16128" width="9.1640625" style="1"/>
+    <col min="16129" max="16129" width="2.5" style="1" customWidth="1"/>
     <col min="16130" max="16130" width="23.33203125" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="45" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="65.109375" style="1" customWidth="1"/>
-    <col min="16133" max="16384" width="9.109375" style="1"/>
+    <col min="16132" max="16132" width="65.1640625" style="1" customWidth="1"/>
+    <col min="16133" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="2:4" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+    </row>
+    <row r="5" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1394,8 +1394,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="55"/>
+    <row r="6" spans="2:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1403,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
+    <row r="7" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1412,8 +1412,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:4" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55"/>
+    <row r="8" spans="2:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1421,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+    <row r="9" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1430,8 +1430,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
+    <row r="10" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1439,8 +1439,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
+    <row r="11" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1448,8 +1448,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+    <row r="12" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1457,8 +1457,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
+    <row r="13" spans="2:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1466,13 +1466,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" s="3" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1482,8 +1482,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
+    <row r="16" spans="2:4" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B16" s="52"/>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1491,8 +1491,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
+    <row r="17" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="52"/>
       <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
@@ -1500,127 +1500,133 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="3" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
+    <row r="18" spans="2:6" s="3" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="53"/>
       <c r="C18" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="17">
         <v>44701</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="36" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="45" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="51" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="52"/>
-    </row>
-    <row r="35" spans="2:4" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="53"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="32"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D15 D17:D18 D24 D26 D28 D30 D32 D5:D13" name="Range1"/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="B22:D23"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:C35"/>
@@ -1632,11 +1638,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="B22:D23"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 IZ24 SV24 ACR24 AMN24 AWJ24 BGF24 BQB24 BZX24 CJT24 CTP24 DDL24 DNH24 DXD24 EGZ24 EQV24 FAR24 FKN24 FUJ24 GEF24 GOB24 GXX24 HHT24 HRP24 IBL24 ILH24 IVD24 JEZ24 JOV24 JYR24 KIN24 KSJ24 LCF24 LMB24 LVX24 MFT24 MPP24 MZL24 NJH24 NTD24 OCZ24 OMV24 OWR24 PGN24 PQJ24 QAF24 QKB24 QTX24 RDT24 RNP24 RXL24 SHH24 SRD24 TAZ24 TKV24 TUR24 UEN24 UOJ24 UYF24 VIB24 VRX24 WBT24 WLP24 WVL24 D65560 IZ65560 SV65560 ACR65560 AMN65560 AWJ65560 BGF65560 BQB65560 BZX65560 CJT65560 CTP65560 DDL65560 DNH65560 DXD65560 EGZ65560 EQV65560 FAR65560 FKN65560 FUJ65560 GEF65560 GOB65560 GXX65560 HHT65560 HRP65560 IBL65560 ILH65560 IVD65560 JEZ65560 JOV65560 JYR65560 KIN65560 KSJ65560 LCF65560 LMB65560 LVX65560 MFT65560 MPP65560 MZL65560 NJH65560 NTD65560 OCZ65560 OMV65560 OWR65560 PGN65560 PQJ65560 QAF65560 QKB65560 QTX65560 RDT65560 RNP65560 RXL65560 SHH65560 SRD65560 TAZ65560 TKV65560 TUR65560 UEN65560 UOJ65560 UYF65560 VIB65560 VRX65560 WBT65560 WLP65560 WVL65560 D131096 IZ131096 SV131096 ACR131096 AMN131096 AWJ131096 BGF131096 BQB131096 BZX131096 CJT131096 CTP131096 DDL131096 DNH131096 DXD131096 EGZ131096 EQV131096 FAR131096 FKN131096 FUJ131096 GEF131096 GOB131096 GXX131096 HHT131096 HRP131096 IBL131096 ILH131096 IVD131096 JEZ131096 JOV131096 JYR131096 KIN131096 KSJ131096 LCF131096 LMB131096 LVX131096 MFT131096 MPP131096 MZL131096 NJH131096 NTD131096 OCZ131096 OMV131096 OWR131096 PGN131096 PQJ131096 QAF131096 QKB131096 QTX131096 RDT131096 RNP131096 RXL131096 SHH131096 SRD131096 TAZ131096 TKV131096 TUR131096 UEN131096 UOJ131096 UYF131096 VIB131096 VRX131096 WBT131096 WLP131096 WVL131096 D196632 IZ196632 SV196632 ACR196632 AMN196632 AWJ196632 BGF196632 BQB196632 BZX196632 CJT196632 CTP196632 DDL196632 DNH196632 DXD196632 EGZ196632 EQV196632 FAR196632 FKN196632 FUJ196632 GEF196632 GOB196632 GXX196632 HHT196632 HRP196632 IBL196632 ILH196632 IVD196632 JEZ196632 JOV196632 JYR196632 KIN196632 KSJ196632 LCF196632 LMB196632 LVX196632 MFT196632 MPP196632 MZL196632 NJH196632 NTD196632 OCZ196632 OMV196632 OWR196632 PGN196632 PQJ196632 QAF196632 QKB196632 QTX196632 RDT196632 RNP196632 RXL196632 SHH196632 SRD196632 TAZ196632 TKV196632 TUR196632 UEN196632 UOJ196632 UYF196632 VIB196632 VRX196632 WBT196632 WLP196632 WVL196632 D262168 IZ262168 SV262168 ACR262168 AMN262168 AWJ262168 BGF262168 BQB262168 BZX262168 CJT262168 CTP262168 DDL262168 DNH262168 DXD262168 EGZ262168 EQV262168 FAR262168 FKN262168 FUJ262168 GEF262168 GOB262168 GXX262168 HHT262168 HRP262168 IBL262168 ILH262168 IVD262168 JEZ262168 JOV262168 JYR262168 KIN262168 KSJ262168 LCF262168 LMB262168 LVX262168 MFT262168 MPP262168 MZL262168 NJH262168 NTD262168 OCZ262168 OMV262168 OWR262168 PGN262168 PQJ262168 QAF262168 QKB262168 QTX262168 RDT262168 RNP262168 RXL262168 SHH262168 SRD262168 TAZ262168 TKV262168 TUR262168 UEN262168 UOJ262168 UYF262168 VIB262168 VRX262168 WBT262168 WLP262168 WVL262168 D327704 IZ327704 SV327704 ACR327704 AMN327704 AWJ327704 BGF327704 BQB327704 BZX327704 CJT327704 CTP327704 DDL327704 DNH327704 DXD327704 EGZ327704 EQV327704 FAR327704 FKN327704 FUJ327704 GEF327704 GOB327704 GXX327704 HHT327704 HRP327704 IBL327704 ILH327704 IVD327704 JEZ327704 JOV327704 JYR327704 KIN327704 KSJ327704 LCF327704 LMB327704 LVX327704 MFT327704 MPP327704 MZL327704 NJH327704 NTD327704 OCZ327704 OMV327704 OWR327704 PGN327704 PQJ327704 QAF327704 QKB327704 QTX327704 RDT327704 RNP327704 RXL327704 SHH327704 SRD327704 TAZ327704 TKV327704 TUR327704 UEN327704 UOJ327704 UYF327704 VIB327704 VRX327704 WBT327704 WLP327704 WVL327704 D393240 IZ393240 SV393240 ACR393240 AMN393240 AWJ393240 BGF393240 BQB393240 BZX393240 CJT393240 CTP393240 DDL393240 DNH393240 DXD393240 EGZ393240 EQV393240 FAR393240 FKN393240 FUJ393240 GEF393240 GOB393240 GXX393240 HHT393240 HRP393240 IBL393240 ILH393240 IVD393240 JEZ393240 JOV393240 JYR393240 KIN393240 KSJ393240 LCF393240 LMB393240 LVX393240 MFT393240 MPP393240 MZL393240 NJH393240 NTD393240 OCZ393240 OMV393240 OWR393240 PGN393240 PQJ393240 QAF393240 QKB393240 QTX393240 RDT393240 RNP393240 RXL393240 SHH393240 SRD393240 TAZ393240 TKV393240 TUR393240 UEN393240 UOJ393240 UYF393240 VIB393240 VRX393240 WBT393240 WLP393240 WVL393240 D458776 IZ458776 SV458776 ACR458776 AMN458776 AWJ458776 BGF458776 BQB458776 BZX458776 CJT458776 CTP458776 DDL458776 DNH458776 DXD458776 EGZ458776 EQV458776 FAR458776 FKN458776 FUJ458776 GEF458776 GOB458776 GXX458776 HHT458776 HRP458776 IBL458776 ILH458776 IVD458776 JEZ458776 JOV458776 JYR458776 KIN458776 KSJ458776 LCF458776 LMB458776 LVX458776 MFT458776 MPP458776 MZL458776 NJH458776 NTD458776 OCZ458776 OMV458776 OWR458776 PGN458776 PQJ458776 QAF458776 QKB458776 QTX458776 RDT458776 RNP458776 RXL458776 SHH458776 SRD458776 TAZ458776 TKV458776 TUR458776 UEN458776 UOJ458776 UYF458776 VIB458776 VRX458776 WBT458776 WLP458776 WVL458776 D524312 IZ524312 SV524312 ACR524312 AMN524312 AWJ524312 BGF524312 BQB524312 BZX524312 CJT524312 CTP524312 DDL524312 DNH524312 DXD524312 EGZ524312 EQV524312 FAR524312 FKN524312 FUJ524312 GEF524312 GOB524312 GXX524312 HHT524312 HRP524312 IBL524312 ILH524312 IVD524312 JEZ524312 JOV524312 JYR524312 KIN524312 KSJ524312 LCF524312 LMB524312 LVX524312 MFT524312 MPP524312 MZL524312 NJH524312 NTD524312 OCZ524312 OMV524312 OWR524312 PGN524312 PQJ524312 QAF524312 QKB524312 QTX524312 RDT524312 RNP524312 RXL524312 SHH524312 SRD524312 TAZ524312 TKV524312 TUR524312 UEN524312 UOJ524312 UYF524312 VIB524312 VRX524312 WBT524312 WLP524312 WVL524312 D589848 IZ589848 SV589848 ACR589848 AMN589848 AWJ589848 BGF589848 BQB589848 BZX589848 CJT589848 CTP589848 DDL589848 DNH589848 DXD589848 EGZ589848 EQV589848 FAR589848 FKN589848 FUJ589848 GEF589848 GOB589848 GXX589848 HHT589848 HRP589848 IBL589848 ILH589848 IVD589848 JEZ589848 JOV589848 JYR589848 KIN589848 KSJ589848 LCF589848 LMB589848 LVX589848 MFT589848 MPP589848 MZL589848 NJH589848 NTD589848 OCZ589848 OMV589848 OWR589848 PGN589848 PQJ589848 QAF589848 QKB589848 QTX589848 RDT589848 RNP589848 RXL589848 SHH589848 SRD589848 TAZ589848 TKV589848 TUR589848 UEN589848 UOJ589848 UYF589848 VIB589848 VRX589848 WBT589848 WLP589848 WVL589848 D655384 IZ655384 SV655384 ACR655384 AMN655384 AWJ655384 BGF655384 BQB655384 BZX655384 CJT655384 CTP655384 DDL655384 DNH655384 DXD655384 EGZ655384 EQV655384 FAR655384 FKN655384 FUJ655384 GEF655384 GOB655384 GXX655384 HHT655384 HRP655384 IBL655384 ILH655384 IVD655384 JEZ655384 JOV655384 JYR655384 KIN655384 KSJ655384 LCF655384 LMB655384 LVX655384 MFT655384 MPP655384 MZL655384 NJH655384 NTD655384 OCZ655384 OMV655384 OWR655384 PGN655384 PQJ655384 QAF655384 QKB655384 QTX655384 RDT655384 RNP655384 RXL655384 SHH655384 SRD655384 TAZ655384 TKV655384 TUR655384 UEN655384 UOJ655384 UYF655384 VIB655384 VRX655384 WBT655384 WLP655384 WVL655384 D720920 IZ720920 SV720920 ACR720920 AMN720920 AWJ720920 BGF720920 BQB720920 BZX720920 CJT720920 CTP720920 DDL720920 DNH720920 DXD720920 EGZ720920 EQV720920 FAR720920 FKN720920 FUJ720920 GEF720920 GOB720920 GXX720920 HHT720920 HRP720920 IBL720920 ILH720920 IVD720920 JEZ720920 JOV720920 JYR720920 KIN720920 KSJ720920 LCF720920 LMB720920 LVX720920 MFT720920 MPP720920 MZL720920 NJH720920 NTD720920 OCZ720920 OMV720920 OWR720920 PGN720920 PQJ720920 QAF720920 QKB720920 QTX720920 RDT720920 RNP720920 RXL720920 SHH720920 SRD720920 TAZ720920 TKV720920 TUR720920 UEN720920 UOJ720920 UYF720920 VIB720920 VRX720920 WBT720920 WLP720920 WVL720920 D786456 IZ786456 SV786456 ACR786456 AMN786456 AWJ786456 BGF786456 BQB786456 BZX786456 CJT786456 CTP786456 DDL786456 DNH786456 DXD786456 EGZ786456 EQV786456 FAR786456 FKN786456 FUJ786456 GEF786456 GOB786456 GXX786456 HHT786456 HRP786456 IBL786456 ILH786456 IVD786456 JEZ786456 JOV786456 JYR786456 KIN786456 KSJ786456 LCF786456 LMB786456 LVX786456 MFT786456 MPP786456 MZL786456 NJH786456 NTD786456 OCZ786456 OMV786456 OWR786456 PGN786456 PQJ786456 QAF786456 QKB786456 QTX786456 RDT786456 RNP786456 RXL786456 SHH786456 SRD786456 TAZ786456 TKV786456 TUR786456 UEN786456 UOJ786456 UYF786456 VIB786456 VRX786456 WBT786456 WLP786456 WVL786456 D851992 IZ851992 SV851992 ACR851992 AMN851992 AWJ851992 BGF851992 BQB851992 BZX851992 CJT851992 CTP851992 DDL851992 DNH851992 DXD851992 EGZ851992 EQV851992 FAR851992 FKN851992 FUJ851992 GEF851992 GOB851992 GXX851992 HHT851992 HRP851992 IBL851992 ILH851992 IVD851992 JEZ851992 JOV851992 JYR851992 KIN851992 KSJ851992 LCF851992 LMB851992 LVX851992 MFT851992 MPP851992 MZL851992 NJH851992 NTD851992 OCZ851992 OMV851992 OWR851992 PGN851992 PQJ851992 QAF851992 QKB851992 QTX851992 RDT851992 RNP851992 RXL851992 SHH851992 SRD851992 TAZ851992 TKV851992 TUR851992 UEN851992 UOJ851992 UYF851992 VIB851992 VRX851992 WBT851992 WLP851992 WVL851992 D917528 IZ917528 SV917528 ACR917528 AMN917528 AWJ917528 BGF917528 BQB917528 BZX917528 CJT917528 CTP917528 DDL917528 DNH917528 DXD917528 EGZ917528 EQV917528 FAR917528 FKN917528 FUJ917528 GEF917528 GOB917528 GXX917528 HHT917528 HRP917528 IBL917528 ILH917528 IVD917528 JEZ917528 JOV917528 JYR917528 KIN917528 KSJ917528 LCF917528 LMB917528 LVX917528 MFT917528 MPP917528 MZL917528 NJH917528 NTD917528 OCZ917528 OMV917528 OWR917528 PGN917528 PQJ917528 QAF917528 QKB917528 QTX917528 RDT917528 RNP917528 RXL917528 SHH917528 SRD917528 TAZ917528 TKV917528 TUR917528 UEN917528 UOJ917528 UYF917528 VIB917528 VRX917528 WBT917528 WLP917528 WVL917528 D983064 IZ983064 SV983064 ACR983064 AMN983064 AWJ983064 BGF983064 BQB983064 BZX983064 CJT983064 CTP983064 DDL983064 DNH983064 DXD983064 EGZ983064 EQV983064 FAR983064 FKN983064 FUJ983064 GEF983064 GOB983064 GXX983064 HHT983064 HRP983064 IBL983064 ILH983064 IVD983064 JEZ983064 JOV983064 JYR983064 KIN983064 KSJ983064 LCF983064 LMB983064 LVX983064 MFT983064 MPP983064 MZL983064 NJH983064 NTD983064 OCZ983064 OMV983064 OWR983064 PGN983064 PQJ983064 QAF983064 QKB983064 QTX983064 RDT983064 RNP983064 RXL983064 SHH983064 SRD983064 TAZ983064 TKV983064 TUR983064 UEN983064 UOJ983064 UYF983064 VIB983064 VRX983064 WBT983064 WLP983064 WVL983064 D26 IZ26 SV26 ACR26 AMN26 AWJ26 BGF26 BQB26 BZX26 CJT26 CTP26 DDL26 DNH26 DXD26 EGZ26 EQV26 FAR26 FKN26 FUJ26 GEF26 GOB26 GXX26 HHT26 HRP26 IBL26 ILH26 IVD26 JEZ26 JOV26 JYR26 KIN26 KSJ26 LCF26 LMB26 LVX26 MFT26 MPP26 MZL26 NJH26 NTD26 OCZ26 OMV26 OWR26 PGN26 PQJ26 QAF26 QKB26 QTX26 RDT26 RNP26 RXL26 SHH26 SRD26 TAZ26 TKV26 TUR26 UEN26 UOJ26 UYF26 VIB26 VRX26 WBT26 WLP26 WVL26 D65562 IZ65562 SV65562 ACR65562 AMN65562 AWJ65562 BGF65562 BQB65562 BZX65562 CJT65562 CTP65562 DDL65562 DNH65562 DXD65562 EGZ65562 EQV65562 FAR65562 FKN65562 FUJ65562 GEF65562 GOB65562 GXX65562 HHT65562 HRP65562 IBL65562 ILH65562 IVD65562 JEZ65562 JOV65562 JYR65562 KIN65562 KSJ65562 LCF65562 LMB65562 LVX65562 MFT65562 MPP65562 MZL65562 NJH65562 NTD65562 OCZ65562 OMV65562 OWR65562 PGN65562 PQJ65562 QAF65562 QKB65562 QTX65562 RDT65562 RNP65562 RXL65562 SHH65562 SRD65562 TAZ65562 TKV65562 TUR65562 UEN65562 UOJ65562 UYF65562 VIB65562 VRX65562 WBT65562 WLP65562 WVL65562 D131098 IZ131098 SV131098 ACR131098 AMN131098 AWJ131098 BGF131098 BQB131098 BZX131098 CJT131098 CTP131098 DDL131098 DNH131098 DXD131098 EGZ131098 EQV131098 FAR131098 FKN131098 FUJ131098 GEF131098 GOB131098 GXX131098 HHT131098 HRP131098 IBL131098 ILH131098 IVD131098 JEZ131098 JOV131098 JYR131098 KIN131098 KSJ131098 LCF131098 LMB131098 LVX131098 MFT131098 MPP131098 MZL131098 NJH131098 NTD131098 OCZ131098 OMV131098 OWR131098 PGN131098 PQJ131098 QAF131098 QKB131098 QTX131098 RDT131098 RNP131098 RXL131098 SHH131098 SRD131098 TAZ131098 TKV131098 TUR131098 UEN131098 UOJ131098 UYF131098 VIB131098 VRX131098 WBT131098 WLP131098 WVL131098 D196634 IZ196634 SV196634 ACR196634 AMN196634 AWJ196634 BGF196634 BQB196634 BZX196634 CJT196634 CTP196634 DDL196634 DNH196634 DXD196634 EGZ196634 EQV196634 FAR196634 FKN196634 FUJ196634 GEF196634 GOB196634 GXX196634 HHT196634 HRP196634 IBL196634 ILH196634 IVD196634 JEZ196634 JOV196634 JYR196634 KIN196634 KSJ196634 LCF196634 LMB196634 LVX196634 MFT196634 MPP196634 MZL196634 NJH196634 NTD196634 OCZ196634 OMV196634 OWR196634 PGN196634 PQJ196634 QAF196634 QKB196634 QTX196634 RDT196634 RNP196634 RXL196634 SHH196634 SRD196634 TAZ196634 TKV196634 TUR196634 UEN196634 UOJ196634 UYF196634 VIB196634 VRX196634 WBT196634 WLP196634 WVL196634 D262170 IZ262170 SV262170 ACR262170 AMN262170 AWJ262170 BGF262170 BQB262170 BZX262170 CJT262170 CTP262170 DDL262170 DNH262170 DXD262170 EGZ262170 EQV262170 FAR262170 FKN262170 FUJ262170 GEF262170 GOB262170 GXX262170 HHT262170 HRP262170 IBL262170 ILH262170 IVD262170 JEZ262170 JOV262170 JYR262170 KIN262170 KSJ262170 LCF262170 LMB262170 LVX262170 MFT262170 MPP262170 MZL262170 NJH262170 NTD262170 OCZ262170 OMV262170 OWR262170 PGN262170 PQJ262170 QAF262170 QKB262170 QTX262170 RDT262170 RNP262170 RXL262170 SHH262170 SRD262170 TAZ262170 TKV262170 TUR262170 UEN262170 UOJ262170 UYF262170 VIB262170 VRX262170 WBT262170 WLP262170 WVL262170 D327706 IZ327706 SV327706 ACR327706 AMN327706 AWJ327706 BGF327706 BQB327706 BZX327706 CJT327706 CTP327706 DDL327706 DNH327706 DXD327706 EGZ327706 EQV327706 FAR327706 FKN327706 FUJ327706 GEF327706 GOB327706 GXX327706 HHT327706 HRP327706 IBL327706 ILH327706 IVD327706 JEZ327706 JOV327706 JYR327706 KIN327706 KSJ327706 LCF327706 LMB327706 LVX327706 MFT327706 MPP327706 MZL327706 NJH327706 NTD327706 OCZ327706 OMV327706 OWR327706 PGN327706 PQJ327706 QAF327706 QKB327706 QTX327706 RDT327706 RNP327706 RXL327706 SHH327706 SRD327706 TAZ327706 TKV327706 TUR327706 UEN327706 UOJ327706 UYF327706 VIB327706 VRX327706 WBT327706 WLP327706 WVL327706 D393242 IZ393242 SV393242 ACR393242 AMN393242 AWJ393242 BGF393242 BQB393242 BZX393242 CJT393242 CTP393242 DDL393242 DNH393242 DXD393242 EGZ393242 EQV393242 FAR393242 FKN393242 FUJ393242 GEF393242 GOB393242 GXX393242 HHT393242 HRP393242 IBL393242 ILH393242 IVD393242 JEZ393242 JOV393242 JYR393242 KIN393242 KSJ393242 LCF393242 LMB393242 LVX393242 MFT393242 MPP393242 MZL393242 NJH393242 NTD393242 OCZ393242 OMV393242 OWR393242 PGN393242 PQJ393242 QAF393242 QKB393242 QTX393242 RDT393242 RNP393242 RXL393242 SHH393242 SRD393242 TAZ393242 TKV393242 TUR393242 UEN393242 UOJ393242 UYF393242 VIB393242 VRX393242 WBT393242 WLP393242 WVL393242 D458778 IZ458778 SV458778 ACR458778 AMN458778 AWJ458778 BGF458778 BQB458778 BZX458778 CJT458778 CTP458778 DDL458778 DNH458778 DXD458778 EGZ458778 EQV458778 FAR458778 FKN458778 FUJ458778 GEF458778 GOB458778 GXX458778 HHT458778 HRP458778 IBL458778 ILH458778 IVD458778 JEZ458778 JOV458778 JYR458778 KIN458778 KSJ458778 LCF458778 LMB458778 LVX458778 MFT458778 MPP458778 MZL458778 NJH458778 NTD458778 OCZ458778 OMV458778 OWR458778 PGN458778 PQJ458778 QAF458778 QKB458778 QTX458778 RDT458778 RNP458778 RXL458778 SHH458778 SRD458778 TAZ458778 TKV458778 TUR458778 UEN458778 UOJ458778 UYF458778 VIB458778 VRX458778 WBT458778 WLP458778 WVL458778 D524314 IZ524314 SV524314 ACR524314 AMN524314 AWJ524314 BGF524314 BQB524314 BZX524314 CJT524314 CTP524314 DDL524314 DNH524314 DXD524314 EGZ524314 EQV524314 FAR524314 FKN524314 FUJ524314 GEF524314 GOB524314 GXX524314 HHT524314 HRP524314 IBL524314 ILH524314 IVD524314 JEZ524314 JOV524314 JYR524314 KIN524314 KSJ524314 LCF524314 LMB524314 LVX524314 MFT524314 MPP524314 MZL524314 NJH524314 NTD524314 OCZ524314 OMV524314 OWR524314 PGN524314 PQJ524314 QAF524314 QKB524314 QTX524314 RDT524314 RNP524314 RXL524314 SHH524314 SRD524314 TAZ524314 TKV524314 TUR524314 UEN524314 UOJ524314 UYF524314 VIB524314 VRX524314 WBT524314 WLP524314 WVL524314 D589850 IZ589850 SV589850 ACR589850 AMN589850 AWJ589850 BGF589850 BQB589850 BZX589850 CJT589850 CTP589850 DDL589850 DNH589850 DXD589850 EGZ589850 EQV589850 FAR589850 FKN589850 FUJ589850 GEF589850 GOB589850 GXX589850 HHT589850 HRP589850 IBL589850 ILH589850 IVD589850 JEZ589850 JOV589850 JYR589850 KIN589850 KSJ589850 LCF589850 LMB589850 LVX589850 MFT589850 MPP589850 MZL589850 NJH589850 NTD589850 OCZ589850 OMV589850 OWR589850 PGN589850 PQJ589850 QAF589850 QKB589850 QTX589850 RDT589850 RNP589850 RXL589850 SHH589850 SRD589850 TAZ589850 TKV589850 TUR589850 UEN589850 UOJ589850 UYF589850 VIB589850 VRX589850 WBT589850 WLP589850 WVL589850 D655386 IZ655386 SV655386 ACR655386 AMN655386 AWJ655386 BGF655386 BQB655386 BZX655386 CJT655386 CTP655386 DDL655386 DNH655386 DXD655386 EGZ655386 EQV655386 FAR655386 FKN655386 FUJ655386 GEF655386 GOB655386 GXX655386 HHT655386 HRP655386 IBL655386 ILH655386 IVD655386 JEZ655386 JOV655386 JYR655386 KIN655386 KSJ655386 LCF655386 LMB655386 LVX655386 MFT655386 MPP655386 MZL655386 NJH655386 NTD655386 OCZ655386 OMV655386 OWR655386 PGN655386 PQJ655386 QAF655386 QKB655386 QTX655386 RDT655386 RNP655386 RXL655386 SHH655386 SRD655386 TAZ655386 TKV655386 TUR655386 UEN655386 UOJ655386 UYF655386 VIB655386 VRX655386 WBT655386 WLP655386 WVL655386 D720922 IZ720922 SV720922 ACR720922 AMN720922 AWJ720922 BGF720922 BQB720922 BZX720922 CJT720922 CTP720922 DDL720922 DNH720922 DXD720922 EGZ720922 EQV720922 FAR720922 FKN720922 FUJ720922 GEF720922 GOB720922 GXX720922 HHT720922 HRP720922 IBL720922 ILH720922 IVD720922 JEZ720922 JOV720922 JYR720922 KIN720922 KSJ720922 LCF720922 LMB720922 LVX720922 MFT720922 MPP720922 MZL720922 NJH720922 NTD720922 OCZ720922 OMV720922 OWR720922 PGN720922 PQJ720922 QAF720922 QKB720922 QTX720922 RDT720922 RNP720922 RXL720922 SHH720922 SRD720922 TAZ720922 TKV720922 TUR720922 UEN720922 UOJ720922 UYF720922 VIB720922 VRX720922 WBT720922 WLP720922 WVL720922 D786458 IZ786458 SV786458 ACR786458 AMN786458 AWJ786458 BGF786458 BQB786458 BZX786458 CJT786458 CTP786458 DDL786458 DNH786458 DXD786458 EGZ786458 EQV786458 FAR786458 FKN786458 FUJ786458 GEF786458 GOB786458 GXX786458 HHT786458 HRP786458 IBL786458 ILH786458 IVD786458 JEZ786458 JOV786458 JYR786458 KIN786458 KSJ786458 LCF786458 LMB786458 LVX786458 MFT786458 MPP786458 MZL786458 NJH786458 NTD786458 OCZ786458 OMV786458 OWR786458 PGN786458 PQJ786458 QAF786458 QKB786458 QTX786458 RDT786458 RNP786458 RXL786458 SHH786458 SRD786458 TAZ786458 TKV786458 TUR786458 UEN786458 UOJ786458 UYF786458 VIB786458 VRX786458 WBT786458 WLP786458 WVL786458 D851994 IZ851994 SV851994 ACR851994 AMN851994 AWJ851994 BGF851994 BQB851994 BZX851994 CJT851994 CTP851994 DDL851994 DNH851994 DXD851994 EGZ851994 EQV851994 FAR851994 FKN851994 FUJ851994 GEF851994 GOB851994 GXX851994 HHT851994 HRP851994 IBL851994 ILH851994 IVD851994 JEZ851994 JOV851994 JYR851994 KIN851994 KSJ851994 LCF851994 LMB851994 LVX851994 MFT851994 MPP851994 MZL851994 NJH851994 NTD851994 OCZ851994 OMV851994 OWR851994 PGN851994 PQJ851994 QAF851994 QKB851994 QTX851994 RDT851994 RNP851994 RXL851994 SHH851994 SRD851994 TAZ851994 TKV851994 TUR851994 UEN851994 UOJ851994 UYF851994 VIB851994 VRX851994 WBT851994 WLP851994 WVL851994 D917530 IZ917530 SV917530 ACR917530 AMN917530 AWJ917530 BGF917530 BQB917530 BZX917530 CJT917530 CTP917530 DDL917530 DNH917530 DXD917530 EGZ917530 EQV917530 FAR917530 FKN917530 FUJ917530 GEF917530 GOB917530 GXX917530 HHT917530 HRP917530 IBL917530 ILH917530 IVD917530 JEZ917530 JOV917530 JYR917530 KIN917530 KSJ917530 LCF917530 LMB917530 LVX917530 MFT917530 MPP917530 MZL917530 NJH917530 NTD917530 OCZ917530 OMV917530 OWR917530 PGN917530 PQJ917530 QAF917530 QKB917530 QTX917530 RDT917530 RNP917530 RXL917530 SHH917530 SRD917530 TAZ917530 TKV917530 TUR917530 UEN917530 UOJ917530 UYF917530 VIB917530 VRX917530 WBT917530 WLP917530 WVL917530 D983066 IZ983066 SV983066 ACR983066 AMN983066 AWJ983066 BGF983066 BQB983066 BZX983066 CJT983066 CTP983066 DDL983066 DNH983066 DXD983066 EGZ983066 EQV983066 FAR983066 FKN983066 FUJ983066 GEF983066 GOB983066 GXX983066 HHT983066 HRP983066 IBL983066 ILH983066 IVD983066 JEZ983066 JOV983066 JYR983066 KIN983066 KSJ983066 LCF983066 LMB983066 LVX983066 MFT983066 MPP983066 MZL983066 NJH983066 NTD983066 OCZ983066 OMV983066 OWR983066 PGN983066 PQJ983066 QAF983066 QKB983066 QTX983066 RDT983066 RNP983066 RXL983066 SHH983066 SRD983066 TAZ983066 TKV983066 TUR983066 UEN983066 UOJ983066 UYF983066 VIB983066 VRX983066 WBT983066 WLP983066 WVL983066 D28 IZ28 SV28 ACR28 AMN28 AWJ28 BGF28 BQB28 BZX28 CJT28 CTP28 DDL28 DNH28 DXD28 EGZ28 EQV28 FAR28 FKN28 FUJ28 GEF28 GOB28 GXX28 HHT28 HRP28 IBL28 ILH28 IVD28 JEZ28 JOV28 JYR28 KIN28 KSJ28 LCF28 LMB28 LVX28 MFT28 MPP28 MZL28 NJH28 NTD28 OCZ28 OMV28 OWR28 PGN28 PQJ28 QAF28 QKB28 QTX28 RDT28 RNP28 RXL28 SHH28 SRD28 TAZ28 TKV28 TUR28 UEN28 UOJ28 UYF28 VIB28 VRX28 WBT28 WLP28 WVL28 D65564 IZ65564 SV65564 ACR65564 AMN65564 AWJ65564 BGF65564 BQB65564 BZX65564 CJT65564 CTP65564 DDL65564 DNH65564 DXD65564 EGZ65564 EQV65564 FAR65564 FKN65564 FUJ65564 GEF65564 GOB65564 GXX65564 HHT65564 HRP65564 IBL65564 ILH65564 IVD65564 JEZ65564 JOV65564 JYR65564 KIN65564 KSJ65564 LCF65564 LMB65564 LVX65564 MFT65564 MPP65564 MZL65564 NJH65564 NTD65564 OCZ65564 OMV65564 OWR65564 PGN65564 PQJ65564 QAF65564 QKB65564 QTX65564 RDT65564 RNP65564 RXL65564 SHH65564 SRD65564 TAZ65564 TKV65564 TUR65564 UEN65564 UOJ65564 UYF65564 VIB65564 VRX65564 WBT65564 WLP65564 WVL65564 D131100 IZ131100 SV131100 ACR131100 AMN131100 AWJ131100 BGF131100 BQB131100 BZX131100 CJT131100 CTP131100 DDL131100 DNH131100 DXD131100 EGZ131100 EQV131100 FAR131100 FKN131100 FUJ131100 GEF131100 GOB131100 GXX131100 HHT131100 HRP131100 IBL131100 ILH131100 IVD131100 JEZ131100 JOV131100 JYR131100 KIN131100 KSJ131100 LCF131100 LMB131100 LVX131100 MFT131100 MPP131100 MZL131100 NJH131100 NTD131100 OCZ131100 OMV131100 OWR131100 PGN131100 PQJ131100 QAF131100 QKB131100 QTX131100 RDT131100 RNP131100 RXL131100 SHH131100 SRD131100 TAZ131100 TKV131100 TUR131100 UEN131100 UOJ131100 UYF131100 VIB131100 VRX131100 WBT131100 WLP131100 WVL131100 D196636 IZ196636 SV196636 ACR196636 AMN196636 AWJ196636 BGF196636 BQB196636 BZX196636 CJT196636 CTP196636 DDL196636 DNH196636 DXD196636 EGZ196636 EQV196636 FAR196636 FKN196636 FUJ196636 GEF196636 GOB196636 GXX196636 HHT196636 HRP196636 IBL196636 ILH196636 IVD196636 JEZ196636 JOV196636 JYR196636 KIN196636 KSJ196636 LCF196636 LMB196636 LVX196636 MFT196636 MPP196636 MZL196636 NJH196636 NTD196636 OCZ196636 OMV196636 OWR196636 PGN196636 PQJ196636 QAF196636 QKB196636 QTX196636 RDT196636 RNP196636 RXL196636 SHH196636 SRD196636 TAZ196636 TKV196636 TUR196636 UEN196636 UOJ196636 UYF196636 VIB196636 VRX196636 WBT196636 WLP196636 WVL196636 D262172 IZ262172 SV262172 ACR262172 AMN262172 AWJ262172 BGF262172 BQB262172 BZX262172 CJT262172 CTP262172 DDL262172 DNH262172 DXD262172 EGZ262172 EQV262172 FAR262172 FKN262172 FUJ262172 GEF262172 GOB262172 GXX262172 HHT262172 HRP262172 IBL262172 ILH262172 IVD262172 JEZ262172 JOV262172 JYR262172 KIN262172 KSJ262172 LCF262172 LMB262172 LVX262172 MFT262172 MPP262172 MZL262172 NJH262172 NTD262172 OCZ262172 OMV262172 OWR262172 PGN262172 PQJ262172 QAF262172 QKB262172 QTX262172 RDT262172 RNP262172 RXL262172 SHH262172 SRD262172 TAZ262172 TKV262172 TUR262172 UEN262172 UOJ262172 UYF262172 VIB262172 VRX262172 WBT262172 WLP262172 WVL262172 D327708 IZ327708 SV327708 ACR327708 AMN327708 AWJ327708 BGF327708 BQB327708 BZX327708 CJT327708 CTP327708 DDL327708 DNH327708 DXD327708 EGZ327708 EQV327708 FAR327708 FKN327708 FUJ327708 GEF327708 GOB327708 GXX327708 HHT327708 HRP327708 IBL327708 ILH327708 IVD327708 JEZ327708 JOV327708 JYR327708 KIN327708 KSJ327708 LCF327708 LMB327708 LVX327708 MFT327708 MPP327708 MZL327708 NJH327708 NTD327708 OCZ327708 OMV327708 OWR327708 PGN327708 PQJ327708 QAF327708 QKB327708 QTX327708 RDT327708 RNP327708 RXL327708 SHH327708 SRD327708 TAZ327708 TKV327708 TUR327708 UEN327708 UOJ327708 UYF327708 VIB327708 VRX327708 WBT327708 WLP327708 WVL327708 D393244 IZ393244 SV393244 ACR393244 AMN393244 AWJ393244 BGF393244 BQB393244 BZX393244 CJT393244 CTP393244 DDL393244 DNH393244 DXD393244 EGZ393244 EQV393244 FAR393244 FKN393244 FUJ393244 GEF393244 GOB393244 GXX393244 HHT393244 HRP393244 IBL393244 ILH393244 IVD393244 JEZ393244 JOV393244 JYR393244 KIN393244 KSJ393244 LCF393244 LMB393244 LVX393244 MFT393244 MPP393244 MZL393244 NJH393244 NTD393244 OCZ393244 OMV393244 OWR393244 PGN393244 PQJ393244 QAF393244 QKB393244 QTX393244 RDT393244 RNP393244 RXL393244 SHH393244 SRD393244 TAZ393244 TKV393244 TUR393244 UEN393244 UOJ393244 UYF393244 VIB393244 VRX393244 WBT393244 WLP393244 WVL393244 D458780 IZ458780 SV458780 ACR458780 AMN458780 AWJ458780 BGF458780 BQB458780 BZX458780 CJT458780 CTP458780 DDL458780 DNH458780 DXD458780 EGZ458780 EQV458780 FAR458780 FKN458780 FUJ458780 GEF458780 GOB458780 GXX458780 HHT458780 HRP458780 IBL458780 ILH458780 IVD458780 JEZ458780 JOV458780 JYR458780 KIN458780 KSJ458780 LCF458780 LMB458780 LVX458780 MFT458780 MPP458780 MZL458780 NJH458780 NTD458780 OCZ458780 OMV458780 OWR458780 PGN458780 PQJ458780 QAF458780 QKB458780 QTX458780 RDT458780 RNP458780 RXL458780 SHH458780 SRD458780 TAZ458780 TKV458780 TUR458780 UEN458780 UOJ458780 UYF458780 VIB458780 VRX458780 WBT458780 WLP458780 WVL458780 D524316 IZ524316 SV524316 ACR524316 AMN524316 AWJ524316 BGF524316 BQB524316 BZX524316 CJT524316 CTP524316 DDL524316 DNH524316 DXD524316 EGZ524316 EQV524316 FAR524316 FKN524316 FUJ524316 GEF524316 GOB524316 GXX524316 HHT524316 HRP524316 IBL524316 ILH524316 IVD524316 JEZ524316 JOV524316 JYR524316 KIN524316 KSJ524316 LCF524316 LMB524316 LVX524316 MFT524316 MPP524316 MZL524316 NJH524316 NTD524316 OCZ524316 OMV524316 OWR524316 PGN524316 PQJ524316 QAF524316 QKB524316 QTX524316 RDT524316 RNP524316 RXL524316 SHH524316 SRD524316 TAZ524316 TKV524316 TUR524316 UEN524316 UOJ524316 UYF524316 VIB524316 VRX524316 WBT524316 WLP524316 WVL524316 D589852 IZ589852 SV589852 ACR589852 AMN589852 AWJ589852 BGF589852 BQB589852 BZX589852 CJT589852 CTP589852 DDL589852 DNH589852 DXD589852 EGZ589852 EQV589852 FAR589852 FKN589852 FUJ589852 GEF589852 GOB589852 GXX589852 HHT589852 HRP589852 IBL589852 ILH589852 IVD589852 JEZ589852 JOV589852 JYR589852 KIN589852 KSJ589852 LCF589852 LMB589852 LVX589852 MFT589852 MPP589852 MZL589852 NJH589852 NTD589852 OCZ589852 OMV589852 OWR589852 PGN589852 PQJ589852 QAF589852 QKB589852 QTX589852 RDT589852 RNP589852 RXL589852 SHH589852 SRD589852 TAZ589852 TKV589852 TUR589852 UEN589852 UOJ589852 UYF589852 VIB589852 VRX589852 WBT589852 WLP589852 WVL589852 D655388 IZ655388 SV655388 ACR655388 AMN655388 AWJ655388 BGF655388 BQB655388 BZX655388 CJT655388 CTP655388 DDL655388 DNH655388 DXD655388 EGZ655388 EQV655388 FAR655388 FKN655388 FUJ655388 GEF655388 GOB655388 GXX655388 HHT655388 HRP655388 IBL655388 ILH655388 IVD655388 JEZ655388 JOV655388 JYR655388 KIN655388 KSJ655388 LCF655388 LMB655388 LVX655388 MFT655388 MPP655388 MZL655388 NJH655388 NTD655388 OCZ655388 OMV655388 OWR655388 PGN655388 PQJ655388 QAF655388 QKB655388 QTX655388 RDT655388 RNP655388 RXL655388 SHH655388 SRD655388 TAZ655388 TKV655388 TUR655388 UEN655388 UOJ655388 UYF655388 VIB655388 VRX655388 WBT655388 WLP655388 WVL655388 D720924 IZ720924 SV720924 ACR720924 AMN720924 AWJ720924 BGF720924 BQB720924 BZX720924 CJT720924 CTP720924 DDL720924 DNH720924 DXD720924 EGZ720924 EQV720924 FAR720924 FKN720924 FUJ720924 GEF720924 GOB720924 GXX720924 HHT720924 HRP720924 IBL720924 ILH720924 IVD720924 JEZ720924 JOV720924 JYR720924 KIN720924 KSJ720924 LCF720924 LMB720924 LVX720924 MFT720924 MPP720924 MZL720924 NJH720924 NTD720924 OCZ720924 OMV720924 OWR720924 PGN720924 PQJ720924 QAF720924 QKB720924 QTX720924 RDT720924 RNP720924 RXL720924 SHH720924 SRD720924 TAZ720924 TKV720924 TUR720924 UEN720924 UOJ720924 UYF720924 VIB720924 VRX720924 WBT720924 WLP720924 WVL720924 D786460 IZ786460 SV786460 ACR786460 AMN786460 AWJ786460 BGF786460 BQB786460 BZX786460 CJT786460 CTP786460 DDL786460 DNH786460 DXD786460 EGZ786460 EQV786460 FAR786460 FKN786460 FUJ786460 GEF786460 GOB786460 GXX786460 HHT786460 HRP786460 IBL786460 ILH786460 IVD786460 JEZ786460 JOV786460 JYR786460 KIN786460 KSJ786460 LCF786460 LMB786460 LVX786460 MFT786460 MPP786460 MZL786460 NJH786460 NTD786460 OCZ786460 OMV786460 OWR786460 PGN786460 PQJ786460 QAF786460 QKB786460 QTX786460 RDT786460 RNP786460 RXL786460 SHH786460 SRD786460 TAZ786460 TKV786460 TUR786460 UEN786460 UOJ786460 UYF786460 VIB786460 VRX786460 WBT786460 WLP786460 WVL786460 D851996 IZ851996 SV851996 ACR851996 AMN851996 AWJ851996 BGF851996 BQB851996 BZX851996 CJT851996 CTP851996 DDL851996 DNH851996 DXD851996 EGZ851996 EQV851996 FAR851996 FKN851996 FUJ851996 GEF851996 GOB851996 GXX851996 HHT851996 HRP851996 IBL851996 ILH851996 IVD851996 JEZ851996 JOV851996 JYR851996 KIN851996 KSJ851996 LCF851996 LMB851996 LVX851996 MFT851996 MPP851996 MZL851996 NJH851996 NTD851996 OCZ851996 OMV851996 OWR851996 PGN851996 PQJ851996 QAF851996 QKB851996 QTX851996 RDT851996 RNP851996 RXL851996 SHH851996 SRD851996 TAZ851996 TKV851996 TUR851996 UEN851996 UOJ851996 UYF851996 VIB851996 VRX851996 WBT851996 WLP851996 WVL851996 D917532 IZ917532 SV917532 ACR917532 AMN917532 AWJ917532 BGF917532 BQB917532 BZX917532 CJT917532 CTP917532 DDL917532 DNH917532 DXD917532 EGZ917532 EQV917532 FAR917532 FKN917532 FUJ917532 GEF917532 GOB917532 GXX917532 HHT917532 HRP917532 IBL917532 ILH917532 IVD917532 JEZ917532 JOV917532 JYR917532 KIN917532 KSJ917532 LCF917532 LMB917532 LVX917532 MFT917532 MPP917532 MZL917532 NJH917532 NTD917532 OCZ917532 OMV917532 OWR917532 PGN917532 PQJ917532 QAF917532 QKB917532 QTX917532 RDT917532 RNP917532 RXL917532 SHH917532 SRD917532 TAZ917532 TKV917532 TUR917532 UEN917532 UOJ917532 UYF917532 VIB917532 VRX917532 WBT917532 WLP917532 WVL917532 D983068 IZ983068 SV983068 ACR983068 AMN983068 AWJ983068 BGF983068 BQB983068 BZX983068 CJT983068 CTP983068 DDL983068 DNH983068 DXD983068 EGZ983068 EQV983068 FAR983068 FKN983068 FUJ983068 GEF983068 GOB983068 GXX983068 HHT983068 HRP983068 IBL983068 ILH983068 IVD983068 JEZ983068 JOV983068 JYR983068 KIN983068 KSJ983068 LCF983068 LMB983068 LVX983068 MFT983068 MPP983068 MZL983068 NJH983068 NTD983068 OCZ983068 OMV983068 OWR983068 PGN983068 PQJ983068 QAF983068 QKB983068 QTX983068 RDT983068 RNP983068 RXL983068 SHH983068 SRD983068 TAZ983068 TKV983068 TUR983068 UEN983068 UOJ983068 UYF983068 VIB983068 VRX983068 WBT983068 WLP983068 WVL983068 D30 IZ30 SV30 ACR30 AMN30 AWJ30 BGF30 BQB30 BZX30 CJT30 CTP30 DDL30 DNH30 DXD30 EGZ30 EQV30 FAR30 FKN30 FUJ30 GEF30 GOB30 GXX30 HHT30 HRP30 IBL30 ILH30 IVD30 JEZ30 JOV30 JYR30 KIN30 KSJ30 LCF30 LMB30 LVX30 MFT30 MPP30 MZL30 NJH30 NTD30 OCZ30 OMV30 OWR30 PGN30 PQJ30 QAF30 QKB30 QTX30 RDT30 RNP30 RXL30 SHH30 SRD30 TAZ30 TKV30 TUR30 UEN30 UOJ30 UYF30 VIB30 VRX30 WBT30 WLP30 WVL30 D65566 IZ65566 SV65566 ACR65566 AMN65566 AWJ65566 BGF65566 BQB65566 BZX65566 CJT65566 CTP65566 DDL65566 DNH65566 DXD65566 EGZ65566 EQV65566 FAR65566 FKN65566 FUJ65566 GEF65566 GOB65566 GXX65566 HHT65566 HRP65566 IBL65566 ILH65566 IVD65566 JEZ65566 JOV65566 JYR65566 KIN65566 KSJ65566 LCF65566 LMB65566 LVX65566 MFT65566 MPP65566 MZL65566 NJH65566 NTD65566 OCZ65566 OMV65566 OWR65566 PGN65566 PQJ65566 QAF65566 QKB65566 QTX65566 RDT65566 RNP65566 RXL65566 SHH65566 SRD65566 TAZ65566 TKV65566 TUR65566 UEN65566 UOJ65566 UYF65566 VIB65566 VRX65566 WBT65566 WLP65566 WVL65566 D131102 IZ131102 SV131102 ACR131102 AMN131102 AWJ131102 BGF131102 BQB131102 BZX131102 CJT131102 CTP131102 DDL131102 DNH131102 DXD131102 EGZ131102 EQV131102 FAR131102 FKN131102 FUJ131102 GEF131102 GOB131102 GXX131102 HHT131102 HRP131102 IBL131102 ILH131102 IVD131102 JEZ131102 JOV131102 JYR131102 KIN131102 KSJ131102 LCF131102 LMB131102 LVX131102 MFT131102 MPP131102 MZL131102 NJH131102 NTD131102 OCZ131102 OMV131102 OWR131102 PGN131102 PQJ131102 QAF131102 QKB131102 QTX131102 RDT131102 RNP131102 RXL131102 SHH131102 SRD131102 TAZ131102 TKV131102 TUR131102 UEN131102 UOJ131102 UYF131102 VIB131102 VRX131102 WBT131102 WLP131102 WVL131102 D196638 IZ196638 SV196638 ACR196638 AMN196638 AWJ196638 BGF196638 BQB196638 BZX196638 CJT196638 CTP196638 DDL196638 DNH196638 DXD196638 EGZ196638 EQV196638 FAR196638 FKN196638 FUJ196638 GEF196638 GOB196638 GXX196638 HHT196638 HRP196638 IBL196638 ILH196638 IVD196638 JEZ196638 JOV196638 JYR196638 KIN196638 KSJ196638 LCF196638 LMB196638 LVX196638 MFT196638 MPP196638 MZL196638 NJH196638 NTD196638 OCZ196638 OMV196638 OWR196638 PGN196638 PQJ196638 QAF196638 QKB196638 QTX196638 RDT196638 RNP196638 RXL196638 SHH196638 SRD196638 TAZ196638 TKV196638 TUR196638 UEN196638 UOJ196638 UYF196638 VIB196638 VRX196638 WBT196638 WLP196638 WVL196638 D262174 IZ262174 SV262174 ACR262174 AMN262174 AWJ262174 BGF262174 BQB262174 BZX262174 CJT262174 CTP262174 DDL262174 DNH262174 DXD262174 EGZ262174 EQV262174 FAR262174 FKN262174 FUJ262174 GEF262174 GOB262174 GXX262174 HHT262174 HRP262174 IBL262174 ILH262174 IVD262174 JEZ262174 JOV262174 JYR262174 KIN262174 KSJ262174 LCF262174 LMB262174 LVX262174 MFT262174 MPP262174 MZL262174 NJH262174 NTD262174 OCZ262174 OMV262174 OWR262174 PGN262174 PQJ262174 QAF262174 QKB262174 QTX262174 RDT262174 RNP262174 RXL262174 SHH262174 SRD262174 TAZ262174 TKV262174 TUR262174 UEN262174 UOJ262174 UYF262174 VIB262174 VRX262174 WBT262174 WLP262174 WVL262174 D327710 IZ327710 SV327710 ACR327710 AMN327710 AWJ327710 BGF327710 BQB327710 BZX327710 CJT327710 CTP327710 DDL327710 DNH327710 DXD327710 EGZ327710 EQV327710 FAR327710 FKN327710 FUJ327710 GEF327710 GOB327710 GXX327710 HHT327710 HRP327710 IBL327710 ILH327710 IVD327710 JEZ327710 JOV327710 JYR327710 KIN327710 KSJ327710 LCF327710 LMB327710 LVX327710 MFT327710 MPP327710 MZL327710 NJH327710 NTD327710 OCZ327710 OMV327710 OWR327710 PGN327710 PQJ327710 QAF327710 QKB327710 QTX327710 RDT327710 RNP327710 RXL327710 SHH327710 SRD327710 TAZ327710 TKV327710 TUR327710 UEN327710 UOJ327710 UYF327710 VIB327710 VRX327710 WBT327710 WLP327710 WVL327710 D393246 IZ393246 SV393246 ACR393246 AMN393246 AWJ393246 BGF393246 BQB393246 BZX393246 CJT393246 CTP393246 DDL393246 DNH393246 DXD393246 EGZ393246 EQV393246 FAR393246 FKN393246 FUJ393246 GEF393246 GOB393246 GXX393246 HHT393246 HRP393246 IBL393246 ILH393246 IVD393246 JEZ393246 JOV393246 JYR393246 KIN393246 KSJ393246 LCF393246 LMB393246 LVX393246 MFT393246 MPP393246 MZL393246 NJH393246 NTD393246 OCZ393246 OMV393246 OWR393246 PGN393246 PQJ393246 QAF393246 QKB393246 QTX393246 RDT393246 RNP393246 RXL393246 SHH393246 SRD393246 TAZ393246 TKV393246 TUR393246 UEN393246 UOJ393246 UYF393246 VIB393246 VRX393246 WBT393246 WLP393246 WVL393246 D458782 IZ458782 SV458782 ACR458782 AMN458782 AWJ458782 BGF458782 BQB458782 BZX458782 CJT458782 CTP458782 DDL458782 DNH458782 DXD458782 EGZ458782 EQV458782 FAR458782 FKN458782 FUJ458782 GEF458782 GOB458782 GXX458782 HHT458782 HRP458782 IBL458782 ILH458782 IVD458782 JEZ458782 JOV458782 JYR458782 KIN458782 KSJ458782 LCF458782 LMB458782 LVX458782 MFT458782 MPP458782 MZL458782 NJH458782 NTD458782 OCZ458782 OMV458782 OWR458782 PGN458782 PQJ458782 QAF458782 QKB458782 QTX458782 RDT458782 RNP458782 RXL458782 SHH458782 SRD458782 TAZ458782 TKV458782 TUR458782 UEN458782 UOJ458782 UYF458782 VIB458782 VRX458782 WBT458782 WLP458782 WVL458782 D524318 IZ524318 SV524318 ACR524318 AMN524318 AWJ524318 BGF524318 BQB524318 BZX524318 CJT524318 CTP524318 DDL524318 DNH524318 DXD524318 EGZ524318 EQV524318 FAR524318 FKN524318 FUJ524318 GEF524318 GOB524318 GXX524318 HHT524318 HRP524318 IBL524318 ILH524318 IVD524318 JEZ524318 JOV524318 JYR524318 KIN524318 KSJ524318 LCF524318 LMB524318 LVX524318 MFT524318 MPP524318 MZL524318 NJH524318 NTD524318 OCZ524318 OMV524318 OWR524318 PGN524318 PQJ524318 QAF524318 QKB524318 QTX524318 RDT524318 RNP524318 RXL524318 SHH524318 SRD524318 TAZ524318 TKV524318 TUR524318 UEN524318 UOJ524318 UYF524318 VIB524318 VRX524318 WBT524318 WLP524318 WVL524318 D589854 IZ589854 SV589854 ACR589854 AMN589854 AWJ589854 BGF589854 BQB589854 BZX589854 CJT589854 CTP589854 DDL589854 DNH589854 DXD589854 EGZ589854 EQV589854 FAR589854 FKN589854 FUJ589854 GEF589854 GOB589854 GXX589854 HHT589854 HRP589854 IBL589854 ILH589854 IVD589854 JEZ589854 JOV589854 JYR589854 KIN589854 KSJ589854 LCF589854 LMB589854 LVX589854 MFT589854 MPP589854 MZL589854 NJH589854 NTD589854 OCZ589854 OMV589854 OWR589854 PGN589854 PQJ589854 QAF589854 QKB589854 QTX589854 RDT589854 RNP589854 RXL589854 SHH589854 SRD589854 TAZ589854 TKV589854 TUR589854 UEN589854 UOJ589854 UYF589854 VIB589854 VRX589854 WBT589854 WLP589854 WVL589854 D655390 IZ655390 SV655390 ACR655390 AMN655390 AWJ655390 BGF655390 BQB655390 BZX655390 CJT655390 CTP655390 DDL655390 DNH655390 DXD655390 EGZ655390 EQV655390 FAR655390 FKN655390 FUJ655390 GEF655390 GOB655390 GXX655390 HHT655390 HRP655390 IBL655390 ILH655390 IVD655390 JEZ655390 JOV655390 JYR655390 KIN655390 KSJ655390 LCF655390 LMB655390 LVX655390 MFT655390 MPP655390 MZL655390 NJH655390 NTD655390 OCZ655390 OMV655390 OWR655390 PGN655390 PQJ655390 QAF655390 QKB655390 QTX655390 RDT655390 RNP655390 RXL655390 SHH655390 SRD655390 TAZ655390 TKV655390 TUR655390 UEN655390 UOJ655390 UYF655390 VIB655390 VRX655390 WBT655390 WLP655390 WVL655390 D720926 IZ720926 SV720926 ACR720926 AMN720926 AWJ720926 BGF720926 BQB720926 BZX720926 CJT720926 CTP720926 DDL720926 DNH720926 DXD720926 EGZ720926 EQV720926 FAR720926 FKN720926 FUJ720926 GEF720926 GOB720926 GXX720926 HHT720926 HRP720926 IBL720926 ILH720926 IVD720926 JEZ720926 JOV720926 JYR720926 KIN720926 KSJ720926 LCF720926 LMB720926 LVX720926 MFT720926 MPP720926 MZL720926 NJH720926 NTD720926 OCZ720926 OMV720926 OWR720926 PGN720926 PQJ720926 QAF720926 QKB720926 QTX720926 RDT720926 RNP720926 RXL720926 SHH720926 SRD720926 TAZ720926 TKV720926 TUR720926 UEN720926 UOJ720926 UYF720926 VIB720926 VRX720926 WBT720926 WLP720926 WVL720926 D786462 IZ786462 SV786462 ACR786462 AMN786462 AWJ786462 BGF786462 BQB786462 BZX786462 CJT786462 CTP786462 DDL786462 DNH786462 DXD786462 EGZ786462 EQV786462 FAR786462 FKN786462 FUJ786462 GEF786462 GOB786462 GXX786462 HHT786462 HRP786462 IBL786462 ILH786462 IVD786462 JEZ786462 JOV786462 JYR786462 KIN786462 KSJ786462 LCF786462 LMB786462 LVX786462 MFT786462 MPP786462 MZL786462 NJH786462 NTD786462 OCZ786462 OMV786462 OWR786462 PGN786462 PQJ786462 QAF786462 QKB786462 QTX786462 RDT786462 RNP786462 RXL786462 SHH786462 SRD786462 TAZ786462 TKV786462 TUR786462 UEN786462 UOJ786462 UYF786462 VIB786462 VRX786462 WBT786462 WLP786462 WVL786462 D851998 IZ851998 SV851998 ACR851998 AMN851998 AWJ851998 BGF851998 BQB851998 BZX851998 CJT851998 CTP851998 DDL851998 DNH851998 DXD851998 EGZ851998 EQV851998 FAR851998 FKN851998 FUJ851998 GEF851998 GOB851998 GXX851998 HHT851998 HRP851998 IBL851998 ILH851998 IVD851998 JEZ851998 JOV851998 JYR851998 KIN851998 KSJ851998 LCF851998 LMB851998 LVX851998 MFT851998 MPP851998 MZL851998 NJH851998 NTD851998 OCZ851998 OMV851998 OWR851998 PGN851998 PQJ851998 QAF851998 QKB851998 QTX851998 RDT851998 RNP851998 RXL851998 SHH851998 SRD851998 TAZ851998 TKV851998 TUR851998 UEN851998 UOJ851998 UYF851998 VIB851998 VRX851998 WBT851998 WLP851998 WVL851998 D917534 IZ917534 SV917534 ACR917534 AMN917534 AWJ917534 BGF917534 BQB917534 BZX917534 CJT917534 CTP917534 DDL917534 DNH917534 DXD917534 EGZ917534 EQV917534 FAR917534 FKN917534 FUJ917534 GEF917534 GOB917534 GXX917534 HHT917534 HRP917534 IBL917534 ILH917534 IVD917534 JEZ917534 JOV917534 JYR917534 KIN917534 KSJ917534 LCF917534 LMB917534 LVX917534 MFT917534 MPP917534 MZL917534 NJH917534 NTD917534 OCZ917534 OMV917534 OWR917534 PGN917534 PQJ917534 QAF917534 QKB917534 QTX917534 RDT917534 RNP917534 RXL917534 SHH917534 SRD917534 TAZ917534 TKV917534 TUR917534 UEN917534 UOJ917534 UYF917534 VIB917534 VRX917534 WBT917534 WLP917534 WVL917534 D983070 IZ983070 SV983070 ACR983070 AMN983070 AWJ983070 BGF983070 BQB983070 BZX983070 CJT983070 CTP983070 DDL983070 DNH983070 DXD983070 EGZ983070 EQV983070 FAR983070 FKN983070 FUJ983070 GEF983070 GOB983070 GXX983070 HHT983070 HRP983070 IBL983070 ILH983070 IVD983070 JEZ983070 JOV983070 JYR983070 KIN983070 KSJ983070 LCF983070 LMB983070 LVX983070 MFT983070 MPP983070 MZL983070 NJH983070 NTD983070 OCZ983070 OMV983070 OWR983070 PGN983070 PQJ983070 QAF983070 QKB983070 QTX983070 RDT983070 RNP983070 RXL983070 SHH983070 SRD983070 TAZ983070 TKV983070 TUR983070 UEN983070 UOJ983070 UYF983070 VIB983070 VRX983070 WBT983070 WLP983070 WVL983070" xr:uid="{037E72E5-3031-490D-88A5-2AACB1BF8138}">
